--- a/Assets/Game/Editor/XLS/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>folderId</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Assets/Game/AssetBundles/SpriteAtlas/Skill</t>
+  </si>
+  <si>
+    <t>Assets/Game/AssetBundles/Terrain</t>
   </si>
   <si>
     <t>Assets/Game/AssetBundles/UIWindow/Guide</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -823,18 +826,16 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-2023891807</v>
+        <v>498482096</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-1392412074</v>
+        <v>-2023891807</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -845,12 +846,23 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-833208201</v>
+        <v>-1392412074</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>-833208201</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS/AssetDiskMapingFolder.xlsx
@@ -831,7 +831,9 @@
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3">
